--- a/data/trans_camb/IP16A07-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16A07-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,13</t>
+          <t>0,0; 16,4</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,34</t>
+          <t>0,0; 9,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,51</t>
+          <t>0,0; 4,2</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,15</t>
+          <t>0,0; 2,0</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,39</t>
+          <t>0,0; 10,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,8</t>
+          <t>0,0; 6,57</t>
         </is>
       </c>
     </row>
@@ -1564,7 +1564,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,9</t>
+          <t>0,0; 2,26</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1574,12 +1574,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,37; 4,0</t>
+          <t>0,37; 4,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,98</t>
+          <t>0,0; 1,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,17; 1,89</t>
+          <t>0,17; 1,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16A07-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16A07-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,64</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 16,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -715,7 +715,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,1</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -858,12 +858,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,43</t>
         </is>
       </c>
     </row>
@@ -964,37 +964,37 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>1,59</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 11,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,0</t>
+          <t>0,0; 5,89</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,19</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>0,59</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,21</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,3; 3,48</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,13</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,57</t>
+          <t>0,17; 1,8</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1484,237 +1484,20 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>1,42</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,26</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 4,32</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,09</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 1,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
